--- a/rtm_flask/data/charge.xlsx
+++ b/rtm_flask/data/charge.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZhaoYinglong\Documents\vscode\rtm\data_visualization\f12\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\21python\rtm\rtm_flask\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99792068-2A69-4FC1-8EF2-6A545E72A31B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="charg_time" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId4"/>
+    <sheet name="soc" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="64">
   <si>
     <t>充电次数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -171,13 +171,88 @@
   </si>
   <si>
     <t>Passat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充电起始SOC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0~10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10~20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20~30%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30~40%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40~50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50~60%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60~70%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70~80%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80~90%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90~100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lavida BEV</t>
+  </si>
+  <si>
+    <t>Lavida BEV 充电结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lavida</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiaguan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.5次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -229,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -244,6 +319,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -525,18 +606,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -671,14 +778,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E289B5-D0A9-40B4-A415-8FB03A810DA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1037,133 +1147,166 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C61AB47-0A27-43D0-B6DD-CD275F444EDC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:Q19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>42</v>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>30</v>
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2">
+        <v>9.5482130815913682E-2</v>
+      </c>
+      <c r="C2">
+        <v>0.15211791642816255</v>
+      </c>
+      <c r="D2">
+        <v>0.11890735958683021</v>
+      </c>
+      <c r="E2">
+        <v>0.29942019901277128</v>
+      </c>
+      <c r="F2">
+        <v>5.5534987041836359E-4</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>8.1142486205777343E-5</v>
+      </c>
+      <c r="I2">
+        <v>7.8385263570448753E-5</v>
+      </c>
+      <c r="J2">
+        <v>3.6217752270574471E-2</v>
+      </c>
+      <c r="K2">
+        <v>3.931143563520216E-2</v>
+      </c>
+      <c r="L2">
+        <v>1.120197154699227E-4</v>
+      </c>
+      <c r="M2">
+        <v>7.6894685039370078E-5</v>
+      </c>
+      <c r="N2">
+        <v>2.4757897163938208E-2</v>
+      </c>
+      <c r="O2">
+        <v>3.2953569708266142E-2</v>
+      </c>
+      <c r="P2">
+        <v>5.7858651314837852E-5</v>
+      </c>
+      <c r="Q2">
+        <v>2.0968536710665646E-5</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3">
-        <v>9.5482130815913682E-2</v>
+        <v>0.18786244099797708</v>
       </c>
       <c r="C3">
-        <v>0.15211791642816255</v>
+        <v>0.26273611906124783</v>
       </c>
       <c r="D3">
-        <v>0.11890735958683021</v>
+        <v>0.20618140735958684</v>
       </c>
       <c r="E3">
-        <v>0.29942019901277128</v>
+        <v>0.46192117840633079</v>
       </c>
       <c r="F3">
-        <v>5.5534987041836359E-4</v>
+        <v>2.1473528322843393E-2</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.5083369580977236E-2</v>
       </c>
       <c r="H3">
-        <v>8.1142486205777343E-5</v>
+        <v>1.6634209672184357E-2</v>
       </c>
       <c r="I3">
-        <v>7.8385263570448753E-5</v>
+        <v>5.7534783460709386E-2</v>
       </c>
       <c r="J3">
-        <v>3.6217752270574471E-2</v>
+        <v>4.7361676046135844E-2</v>
       </c>
       <c r="K3">
-        <v>3.931143563520216E-2</v>
+        <v>7.8300394649959304E-2</v>
       </c>
       <c r="L3">
-        <v>1.120197154699227E-4</v>
+        <v>2.8004928867480676E-4</v>
       </c>
       <c r="M3">
-        <v>7.6894685039370078E-5</v>
+        <v>1.5378937007874016E-5</v>
       </c>
       <c r="N3">
-        <v>2.4757897163938208E-2</v>
+        <v>3.9601106755821999E-2</v>
       </c>
       <c r="O3">
-        <v>3.2953569708266142E-2</v>
+        <v>7.2556493329703237E-2</v>
       </c>
       <c r="P3">
-        <v>5.7858651314837852E-5</v>
+        <v>1.157173026296757E-4</v>
       </c>
       <c r="Q3">
         <v>2.0968536710665646E-5</v>
@@ -1171,850 +1314,817 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.18786244099797708</v>
+        <v>0.14794335805799055</v>
       </c>
       <c r="C4">
-        <v>0.26273611906124783</v>
+        <v>0.20005724098454494</v>
       </c>
       <c r="D4">
-        <v>0.20618140735958684</v>
+        <v>0.22474176888315042</v>
       </c>
       <c r="E4">
-        <v>0.46192117840633079</v>
+        <v>0.22055942960119093</v>
       </c>
       <c r="F4">
-        <v>2.1473528322843393E-2</v>
+        <v>0.39466864124398371</v>
       </c>
       <c r="G4">
-        <v>2.5083369580977236E-2</v>
+        <v>0.34464259823111498</v>
       </c>
       <c r="H4">
-        <v>1.6634209672184357E-2</v>
+        <v>0.24346802986043492</v>
       </c>
       <c r="I4">
-        <v>5.7534783460709386E-2</v>
+        <v>0.79047619047619044</v>
       </c>
       <c r="J4">
-        <v>4.7361676046135844E-2</v>
+        <v>0.12185880648576364</v>
       </c>
       <c r="K4">
-        <v>7.8300394649959304E-2</v>
+        <v>0.22367592635248229</v>
       </c>
       <c r="L4">
-        <v>2.8004928867480676E-4</v>
+        <v>3.3605914640976814E-4</v>
       </c>
       <c r="M4">
-        <v>1.5378937007874016E-5</v>
+        <v>1.1226624015748031E-3</v>
       </c>
       <c r="N4">
-        <v>3.9601106755821999E-2</v>
+        <v>0.10191376527553608</v>
       </c>
       <c r="O4">
-        <v>7.2556493329703237E-2</v>
+        <v>0.20936564116526002</v>
       </c>
       <c r="P4">
-        <v>1.157173026296757E-4</v>
+        <v>2.3143460525935141E-4</v>
       </c>
       <c r="Q4">
-        <v>2.0968536710665646E-5</v>
+        <v>5.8711902789863814E-4</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>0.14794335805799055</v>
+        <v>5.8530006743088336E-2</v>
       </c>
       <c r="C5">
-        <v>0.20005724098454494</v>
+        <v>8.0995993131081856E-2</v>
       </c>
       <c r="D5">
-        <v>0.22474176888315042</v>
+        <v>0.14985474499677212</v>
       </c>
       <c r="E5">
-        <v>0.22055942960119093</v>
+        <v>1.1948601425997022E-2</v>
       </c>
       <c r="F5">
-        <v>0.39466864124398371</v>
+        <v>6.1458718992965566E-2</v>
       </c>
       <c r="G5">
-        <v>0.34464259823111498</v>
+        <v>5.8576192547484411E-2</v>
       </c>
       <c r="H5">
-        <v>0.24346802986043492</v>
+        <v>3.8461538461538464E-2</v>
       </c>
       <c r="I5">
-        <v>0.79047619047619044</v>
+        <v>0.11546149323927102</v>
       </c>
       <c r="J5">
-        <v>0.12185880648576364</v>
+        <v>0.13099682398172396</v>
       </c>
       <c r="K5">
-        <v>0.22367592635248229</v>
+        <v>0.32029606424962764</v>
       </c>
       <c r="L5">
-        <v>3.3605914640976814E-4</v>
+        <v>1.4562563011089951E-3</v>
       </c>
       <c r="M5">
-        <v>1.1226624015748031E-3</v>
+        <v>6.5560408464566927E-2</v>
       </c>
       <c r="N5">
-        <v>0.10191376527553608</v>
+        <v>0.11499884712935209</v>
       </c>
       <c r="O5">
-        <v>0.20936564116526002</v>
+        <v>0.33421642338059437</v>
       </c>
       <c r="P5">
-        <v>2.3143460525935141E-4</v>
+        <v>7.2323314143547313E-4</v>
       </c>
       <c r="Q5">
-        <v>5.8711902789863814E-4</v>
+        <v>5.9015946572168458E-2</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>5.8530006743088336E-2</v>
+        <v>5.0168577208361431E-2</v>
       </c>
       <c r="C6">
-        <v>8.0995993131081856E-2</v>
+        <v>5.7813394390383514E-2</v>
       </c>
       <c r="D6">
-        <v>0.14985474499677212</v>
+        <v>0.14327792123950936</v>
       </c>
       <c r="E6">
-        <v>1.1948601425997022E-2</v>
+        <v>3.0165321632844942E-3</v>
       </c>
       <c r="F6">
-        <v>6.1458718992965566E-2</v>
+        <v>1.1662347278785635E-2</v>
       </c>
       <c r="G6">
-        <v>5.8576192547484411E-2</v>
+        <v>9.7143685660432064E-3</v>
       </c>
       <c r="H6">
-        <v>3.8461538461538464E-2</v>
+        <v>8.1548198636806225E-3</v>
       </c>
       <c r="I6">
-        <v>0.11546149323927102</v>
+        <v>2.1908681167940428E-2</v>
       </c>
       <c r="J6">
-        <v>0.13099682398172396</v>
+        <v>0.14865994316598874</v>
       </c>
       <c r="K6">
-        <v>0.32029606424962764</v>
+        <v>0.31029928901583209</v>
       </c>
       <c r="L6">
-        <v>1.4562563011089951E-3</v>
+        <v>3.1421530189313318E-2</v>
       </c>
       <c r="M6">
-        <v>6.5560408464566927E-2</v>
+        <v>0.83190821850393704</v>
       </c>
       <c r="N6">
-        <v>0.11499884712935209</v>
+        <v>0.13791215125662901</v>
       </c>
       <c r="O6">
-        <v>0.33421642338059437</v>
+        <v>0.32692831263481958</v>
       </c>
       <c r="P6">
-        <v>7.2323314143547313E-4</v>
+        <v>1.6923655509590071E-2</v>
       </c>
       <c r="Q6">
-        <v>5.9015946572168458E-2</v>
+        <v>0.84492718675627221</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>5.0168577208361431E-2</v>
+        <v>4.1672285906945383E-2</v>
       </c>
       <c r="C7">
-        <v>5.7813394390383514E-2</v>
+        <v>5.2232398397252432E-2</v>
       </c>
       <c r="D7">
-        <v>0.14327792123950936</v>
+        <v>0.118463524854745</v>
       </c>
       <c r="E7">
-        <v>3.0165321632844942E-3</v>
+        <v>9.7939355950795262E-4</v>
       </c>
       <c r="F7">
-        <v>1.1662347278785635E-2</v>
+        <v>3.8874490929285449E-3</v>
       </c>
       <c r="G7">
-        <v>9.7143685660432064E-3</v>
+        <v>5.2196607220530667E-3</v>
       </c>
       <c r="H7">
-        <v>8.1548198636806225E-3</v>
+        <v>6.9376825705939633E-3</v>
       </c>
       <c r="I7">
-        <v>2.1908681167940428E-2</v>
+        <v>6.8587105624142658E-3</v>
       </c>
       <c r="J7">
-        <v>0.14865994316598874</v>
+        <v>0.1596367080849167</v>
       </c>
       <c r="K7">
-        <v>0.31029928901583209</v>
+        <v>6.3420402020853486E-3</v>
       </c>
       <c r="L7">
-        <v>3.1421530189313318E-2</v>
+        <v>6.7771927859303235E-2</v>
       </c>
       <c r="M7">
-        <v>0.83190821850393704</v>
+        <v>6.1546505905511813E-2</v>
       </c>
       <c r="N7">
-        <v>0.13791215125662901</v>
+        <v>0.1692990546460687</v>
       </c>
       <c r="O7">
-        <v>0.32692831263481958</v>
+        <v>5.6440972585813315E-3</v>
       </c>
       <c r="P7">
-        <v>1.6923655509590071E-2</v>
+        <v>5.4126768305030812E-2</v>
       </c>
       <c r="Q7">
-        <v>0.84492718675627221</v>
+        <v>5.9823235235529092E-2</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>4.1672285906945383E-2</v>
+        <v>3.6008091706001347E-2</v>
       </c>
       <c r="C8">
-        <v>5.2232398397252432E-2</v>
+        <v>4.6508299942759013E-2</v>
       </c>
       <c r="D8">
-        <v>0.118463524854745</v>
+        <v>2.4410910264686895E-2</v>
       </c>
       <c r="E8">
-        <v>9.7939355950795262E-4</v>
+        <v>3.9175742380318109E-4</v>
       </c>
       <c r="F8">
-        <v>3.8874490929285449E-3</v>
+        <v>6.2939651980747869E-3</v>
       </c>
       <c r="G8">
-        <v>5.2196607220530667E-3</v>
+        <v>4.7846889952153108E-3</v>
       </c>
       <c r="H8">
-        <v>6.9376825705939633E-3</v>
+        <v>0.38238396624472576</v>
       </c>
       <c r="I8">
-        <v>6.8587105624142658E-3</v>
+        <v>2.7434842249657062E-3</v>
       </c>
       <c r="J8">
-        <v>0.1596367080849167</v>
+        <v>0.1896695826600546</v>
       </c>
       <c r="K8">
-        <v>6.3420402020853486E-3</v>
+        <v>3.3169023817201824E-3</v>
       </c>
       <c r="L8">
-        <v>6.7771927859303235E-2</v>
+        <v>0.27747283521899857</v>
       </c>
       <c r="M8">
-        <v>6.1546505905511813E-2</v>
+        <v>1.336429625984252E-2</v>
       </c>
       <c r="N8">
-        <v>0.1692990546460687</v>
+        <v>0.22734609176850357</v>
       </c>
       <c r="O8">
-        <v>5.6440972585813315E-3</v>
+        <v>2.7644558001214685E-3</v>
       </c>
       <c r="P8">
-        <v>5.4126768305030812E-2</v>
+        <v>0.27659328261058236</v>
       </c>
       <c r="Q8">
-        <v>5.9823235235529092E-2</v>
+        <v>1.2329499585871401E-2</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>3.6008091706001347E-2</v>
+        <v>4.4639244774106537E-2</v>
       </c>
       <c r="C9">
-        <v>4.6508299942759013E-2</v>
+        <v>4.3789353176874643E-2</v>
       </c>
       <c r="D9">
-        <v>2.4410910264686895E-2</v>
+        <v>3.0664945125887669E-3</v>
       </c>
       <c r="E9">
-        <v>3.9175742380318109E-4</v>
+        <v>5.0928465094413544E-4</v>
       </c>
       <c r="F9">
-        <v>6.2939651980747869E-3</v>
+        <v>3.5172158459829692E-3</v>
       </c>
       <c r="G9">
-        <v>4.7846889952153108E-3</v>
+        <v>2.6098303610265334E-3</v>
       </c>
       <c r="H9">
-        <v>0.38238396624472576</v>
+        <v>0.23851833820188251</v>
       </c>
       <c r="I9">
-        <v>2.7434842249657062E-3</v>
+        <v>1.4109347442680777E-3</v>
       </c>
       <c r="J9">
-        <v>0.1896695826600546</v>
+        <v>0.10441856577701009</v>
       </c>
       <c r="K9">
-        <v>3.3169023817201824E-3</v>
+        <v>3.1019179680901706E-3</v>
       </c>
       <c r="L9">
-        <v>0.27747283521899857</v>
+        <v>0.42377058362271758</v>
       </c>
       <c r="M9">
-        <v>1.336429625984252E-2</v>
+        <v>5.4749015748031494E-3</v>
       </c>
       <c r="N9">
-        <v>0.22734609176850357</v>
+        <v>0.13278187687341481</v>
       </c>
       <c r="O9">
         <v>2.7644558001214685E-3</v>
       </c>
       <c r="P9">
-        <v>0.27659328261058236</v>
+        <v>0.46582000173575955</v>
       </c>
       <c r="Q9">
-        <v>1.2329499585871401E-2</v>
+        <v>5.4098824713517367E-3</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>4.4639244774106537E-2</v>
+        <v>5.4484153742414027E-2</v>
       </c>
       <c r="C10">
-        <v>4.3789353176874643E-2</v>
+        <v>3.7349742415569549E-2</v>
       </c>
       <c r="D10">
-        <v>3.0664945125887669E-3</v>
+        <v>2.0174306003873468E-3</v>
       </c>
       <c r="E10">
-        <v>5.0928465094413544E-4</v>
+        <v>3.1340593904254484E-4</v>
       </c>
       <c r="F10">
-        <v>3.5172158459829692E-3</v>
+        <v>9.2558311736393932E-4</v>
       </c>
       <c r="G10">
-        <v>2.6098303610265334E-3</v>
+        <v>1.3049151805132667E-3</v>
       </c>
       <c r="H10">
-        <v>0.23851833820188251</v>
+        <v>2.8562155144433627E-2</v>
       </c>
       <c r="I10">
-        <v>1.4109347442680777E-3</v>
+        <v>9.0143053106016074E-4</v>
       </c>
       <c r="J10">
-        <v>0.10441856577701009</v>
+        <v>1.3261269292918036E-2</v>
       </c>
       <c r="K10">
-        <v>3.1019179680901706E-3</v>
+        <v>2.7180172294651497E-3</v>
       </c>
       <c r="L10">
-        <v>0.42377058362271758</v>
+        <v>8.972779209140809E-2</v>
       </c>
       <c r="M10">
-        <v>5.4749015748031494E-3</v>
+        <v>3.5371555118110234E-3</v>
       </c>
       <c r="N10">
-        <v>0.13278187687341481</v>
+        <v>1.2451002997463684E-2</v>
       </c>
       <c r="O10">
-        <v>2.7644558001214685E-3</v>
+        <v>2.7749272236067771E-3</v>
       </c>
       <c r="P10">
-        <v>0.46582000173575955</v>
+        <v>9.0114849422859952E-2</v>
       </c>
       <c r="Q10">
-        <v>5.4098824713517367E-3</v>
+        <v>3.6590096560111551E-3</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>5.4484153742414027E-2</v>
+        <v>5.3809844908968306E-2</v>
       </c>
       <c r="C11">
-        <v>3.7349742415569549E-2</v>
+        <v>3.1768746422438467E-2</v>
       </c>
       <c r="D11">
-        <v>2.0174306003873468E-3</v>
+        <v>1.5735958683021304E-3</v>
       </c>
       <c r="E11">
-        <v>3.1340593904254484E-4</v>
+        <v>2.3505445428190864E-4</v>
       </c>
       <c r="F11">
-        <v>9.2558311736393932E-4</v>
+        <v>7.4046649389115145E-4</v>
       </c>
       <c r="G11">
-        <v>1.3049151805132667E-3</v>
+        <v>2.6098303610265334E-3</v>
       </c>
       <c r="H11">
-        <v>2.8562155144433627E-2</v>
+        <v>1.1562804284323271E-2</v>
       </c>
       <c r="I11">
-        <v>9.0143053106016074E-4</v>
+        <v>6.2708210856359003E-4</v>
       </c>
       <c r="J11">
-        <v>1.3261269292918036E-2</v>
+        <v>8.0236251184041905E-3</v>
       </c>
       <c r="K11">
-        <v>2.7180172294651497E-3</v>
+        <v>2.3801845794751311E-3</v>
       </c>
       <c r="L11">
-        <v>8.972779209140809E-2</v>
+        <v>2.1675814943430044E-2</v>
       </c>
       <c r="M11">
-        <v>3.5371555118110234E-3</v>
+        <v>2.952755905511811E-3</v>
       </c>
       <c r="N11">
-        <v>1.2451002997463684E-2</v>
+        <v>8.5024210283606173E-3</v>
       </c>
       <c r="O11">
-        <v>2.7749272236067771E-3</v>
+        <v>2.7644558001214685E-3</v>
       </c>
       <c r="P11">
-        <v>9.0114849422859952E-2</v>
+        <v>1.9411577516128098E-2</v>
       </c>
       <c r="Q11">
-        <v>3.6590096560111551E-3</v>
+        <v>3.0614063597571841E-3</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>5.3809844908968306E-2</v>
+        <v>5.7990559676331759E-2</v>
       </c>
       <c r="C12">
-        <v>3.1768746422438467E-2</v>
+        <v>2.1465369204350316E-2</v>
       </c>
       <c r="D12">
-        <v>1.5735958683021304E-3</v>
+        <v>1.2508069722401548E-3</v>
       </c>
       <c r="E12">
-        <v>2.3505445428190864E-4</v>
+        <v>1.9587871190159054E-4</v>
       </c>
       <c r="F12">
-        <v>7.4046649389115145E-4</v>
+        <v>9.2558311736393932E-4</v>
       </c>
       <c r="G12">
-        <v>2.6098303610265334E-3</v>
+        <v>5.9446136001159921E-3</v>
       </c>
       <c r="H12">
-        <v>1.1562804284323271E-2</v>
+        <v>6.1668289516390784E-3</v>
       </c>
       <c r="I12">
-        <v>6.2708210856359003E-4</v>
+        <v>3.1354105428179501E-4</v>
       </c>
       <c r="J12">
-        <v>8.0236251184041905E-3</v>
+        <v>9.8623725413718166E-3</v>
       </c>
       <c r="K12">
-        <v>2.3801845794751311E-3</v>
+        <v>1.9041476635801046E-3</v>
       </c>
       <c r="L12">
-        <v>2.1675814943430044E-2</v>
+        <v>1.0305813823232889E-2</v>
       </c>
       <c r="M12">
-        <v>2.952755905511811E-3</v>
+        <v>2.3375984251968506E-3</v>
       </c>
       <c r="N12">
-        <v>8.5024210283606173E-3</v>
+        <v>8.9635692875259399E-3</v>
       </c>
       <c r="O12">
-        <v>2.7644558001214685E-3</v>
+        <v>2.0628704266057929E-3</v>
       </c>
       <c r="P12">
-        <v>1.9411577516128098E-2</v>
+        <v>8.4762924176237445E-3</v>
       </c>
       <c r="Q12">
-        <v>3.0614063597571841E-3</v>
+        <v>2.5686457470565417E-3</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>5.7990559676331759E-2</v>
+        <v>4.720161834120027E-2</v>
       </c>
       <c r="C13">
-        <v>2.1465369204350316E-2</v>
+        <v>7.5844304522037775E-3</v>
       </c>
       <c r="D13">
-        <v>1.2508069722401548E-3</v>
+        <v>9.280180761781795E-4</v>
       </c>
       <c r="E13">
-        <v>1.9587871190159054E-4</v>
+        <v>2.7423019666222674E-4</v>
       </c>
       <c r="F13">
-        <v>9.2558311736393932E-4</v>
+        <v>7.4046649389115145E-4</v>
       </c>
       <c r="G13">
-        <v>5.9446136001159921E-3</v>
+        <v>8.1049731767435115E-2</v>
       </c>
       <c r="H13">
-        <v>6.1668289516390784E-3</v>
+        <v>3.9759818240830899E-3</v>
       </c>
       <c r="I13">
-        <v>3.1354105428179501E-4</v>
+        <v>3.9192631785224378E-4</v>
       </c>
       <c r="J13">
-        <v>9.8623725413718166E-3</v>
+        <v>1.2648353485262161E-2</v>
       </c>
       <c r="K13">
-        <v>1.9041476635801046E-3</v>
+        <v>2.2266242840251224E-3</v>
       </c>
       <c r="L13">
-        <v>1.0305813823232889E-2</v>
+        <v>1.909936148762182E-2</v>
       </c>
       <c r="M13">
         <v>2.3375984251968506E-3</v>
       </c>
       <c r="N13">
-        <v>8.9635692875259399E-3</v>
+        <v>1.0231727000230574E-2</v>
       </c>
       <c r="O13">
-        <v>2.0628704266057929E-3</v>
+        <v>1.4241135940019686E-3</v>
       </c>
       <c r="P13">
-        <v>8.4762924176237445E-3</v>
+        <v>1.4435733503052044E-2</v>
       </c>
       <c r="Q13">
-        <v>2.5686457470565417E-3</v>
+        <v>1.7613570836959142E-3</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>4.720161834120027E-2</v>
+        <v>3.1962238705327037E-2</v>
       </c>
       <c r="C14">
-        <v>7.5844304522037775E-3</v>
+        <v>2.1465369204350317E-3</v>
       </c>
       <c r="D14">
-        <v>9.280180761781795E-4</v>
+        <v>7.2627501613944478E-4</v>
       </c>
       <c r="E14">
-        <v>2.7423019666222674E-4</v>
+        <v>7.835148476063621E-5</v>
       </c>
       <c r="F14">
-        <v>7.4046649389115145E-4</v>
+        <v>9.2558311736393932E-4</v>
       </c>
       <c r="G14">
-        <v>8.1049731767435115E-2</v>
+        <v>0.15876468029578078</v>
       </c>
       <c r="H14">
-        <v>3.9759818240830899E-3</v>
+        <v>3.4485556637455371E-3</v>
       </c>
       <c r="I14">
-        <v>3.9192631785224378E-4</v>
+        <v>2.7434842249657066E-4</v>
       </c>
       <c r="J14">
-        <v>1.2648353485262161E-2</v>
+        <v>9.0822978770825208E-3</v>
       </c>
       <c r="K14">
-        <v>2.2266242840251224E-3</v>
+        <v>1.8734356044901031E-3</v>
       </c>
       <c r="L14">
-        <v>1.909936148762182E-2</v>
+        <v>2.7612859863335948E-2</v>
       </c>
       <c r="M14">
-        <v>2.3375984251968506E-3</v>
+        <v>2.1376722440944883E-3</v>
       </c>
       <c r="N14">
-        <v>1.0231727000230574E-2</v>
+        <v>5.4473138113903617E-3</v>
       </c>
       <c r="O14">
-        <v>1.4241135940019686E-3</v>
+        <v>1.0471423485308594E-3</v>
       </c>
       <c r="P14">
-        <v>1.4435733503052044E-2</v>
+        <v>2.4589926808806086E-2</v>
       </c>
       <c r="Q14">
-        <v>1.7613570836959142E-3</v>
+        <v>1.2895650077059373E-3</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>3.1962238705327037E-2</v>
+        <v>2.8320971004720162E-2</v>
       </c>
       <c r="C15">
-        <v>2.1465369204350317E-3</v>
+        <v>1.4310246136233543E-3</v>
       </c>
       <c r="D15">
-        <v>7.2627501613944478E-4</v>
+        <v>6.8592640413169784E-4</v>
       </c>
       <c r="E15">
         <v>7.835148476063621E-5</v>
       </c>
       <c r="F15">
-        <v>9.2558311736393932E-4</v>
+        <v>1.1106997408367272E-3</v>
       </c>
       <c r="G15">
-        <v>0.15876468029578078</v>
+        <v>0.13353632013919095</v>
       </c>
       <c r="H15">
-        <v>3.4485556637455371E-3</v>
+        <v>1.8662771827328789E-3</v>
       </c>
       <c r="I15">
         <v>2.7434842249657066E-4</v>
       </c>
       <c r="J15">
-        <v>9.0822978770825208E-3</v>
+        <v>2.7302613250125367E-3</v>
       </c>
       <c r="K15">
-        <v>1.8734356044901031E-3</v>
+        <v>1.4281107476850786E-3</v>
       </c>
       <c r="L15">
-        <v>2.7612859863335948E-2</v>
+        <v>1.1145961689257309E-2</v>
       </c>
       <c r="M15">
-        <v>2.1376722440944883E-3</v>
+        <v>1.5532726377952757E-3</v>
       </c>
       <c r="N15">
-        <v>5.4473138113903617E-3</v>
+        <v>1.6140189070786258E-3</v>
       </c>
       <c r="O15">
-        <v>1.0471423485308594E-3</v>
+        <v>6.5969967957444134E-4</v>
       </c>
       <c r="P15">
-        <v>2.4589926808806086E-2</v>
+        <v>1.2121387450458529E-2</v>
       </c>
       <c r="Q15">
-        <v>1.2895650077059373E-3</v>
+        <v>1.1742380557972763E-3</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>2.8320971004720162E-2</v>
+        <v>1.7936614969656102E-2</v>
       </c>
       <c r="C16">
-        <v>1.4310246136233543E-3</v>
+        <v>1.4310246136233542E-4</v>
       </c>
       <c r="D16">
-        <v>6.8592640413169784E-4</v>
+        <v>6.4557779212395089E-4</v>
       </c>
       <c r="E16">
-        <v>7.835148476063621E-5</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>1.1106997408367272E-3</v>
+        <v>1.4809329877823029E-3</v>
       </c>
       <c r="G16">
-        <v>0.13353632013919095</v>
+        <v>6.4955777874438167E-2</v>
       </c>
       <c r="H16">
-        <v>1.8662771827328789E-3</v>
+        <v>2.5559883154819864E-3</v>
       </c>
       <c r="I16">
-        <v>2.7434842249657066E-4</v>
+        <v>1.5677052714089751E-4</v>
       </c>
       <c r="J16">
-        <v>2.7302613250125367E-3</v>
+        <v>1.4487100908229787E-3</v>
       </c>
       <c r="K16">
-        <v>1.4281107476850786E-3</v>
+        <v>6.91021329525038E-4</v>
       </c>
       <c r="L16">
-        <v>1.1145961689257309E-2</v>
+        <v>4.5928083342668307E-3</v>
       </c>
       <c r="M16">
-        <v>1.5532726377952757E-3</v>
+        <v>1.2610728346456692E-3</v>
       </c>
       <c r="N16">
-        <v>1.6140189070786258E-3</v>
+        <v>1.4122665436937976E-3</v>
       </c>
       <c r="O16">
         <v>6.5969967957444134E-4</v>
       </c>
       <c r="P16">
-        <v>1.2121387450458529E-2</v>
+        <v>5.2651372696502444E-3</v>
       </c>
       <c r="Q16">
-        <v>1.1742380557972763E-3</v>
+        <v>9.3309988362462123E-4</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17">
-        <v>1.7936614969656102E-2</v>
+        <v>1.2272420768712071E-2</v>
       </c>
       <c r="C17">
-        <v>1.4310246136233542E-4</v>
+        <v>2.8620492272467084E-4</v>
       </c>
       <c r="D17">
-        <v>6.4557779212395089E-4</v>
+        <v>5.2453195610071017E-4</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.4809329877823029E-3</v>
+        <v>9.2558311736393932E-4</v>
       </c>
       <c r="G17">
-        <v>6.4955777874438167E-2</v>
+        <v>3.9437436566623171E-2</v>
       </c>
       <c r="H17">
-        <v>2.5559883154819864E-3</v>
+        <v>1.2577085361895489E-3</v>
       </c>
       <c r="I17">
-        <v>1.5677052714089751E-4</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>1.4487100908229787E-3</v>
+        <v>1.2815512341895581E-3</v>
       </c>
       <c r="K17">
-        <v>6.91021329525038E-4</v>
+        <v>6.4495324089003543E-4</v>
       </c>
       <c r="L17">
-        <v>4.5928083342668307E-3</v>
+        <v>2.9125126022179902E-3</v>
       </c>
       <c r="M17">
-        <v>1.2610728346456692E-3</v>
+        <v>1.1380413385826771E-3</v>
       </c>
       <c r="N17">
-        <v>1.4122665436937976E-3</v>
+        <v>6.0525709015448468E-4</v>
       </c>
       <c r="O17">
-        <v>6.5969967957444134E-4</v>
+        <v>3.3508555152987499E-4</v>
       </c>
       <c r="P17">
-        <v>5.2651372696502444E-3</v>
+        <v>2.0829114473341626E-3</v>
       </c>
       <c r="Q17">
-        <v>9.3309988362462123E-4</v>
+        <v>6.5002463803063508E-4</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B18">
-        <v>1.2272420768712071E-2</v>
+        <v>3.3715441672285906E-2</v>
       </c>
       <c r="C18">
-        <v>2.8620492272467084E-4</v>
+        <v>1.5741270749856898E-3</v>
       </c>
       <c r="D18">
-        <v>5.2453195610071017E-4</v>
+        <v>2.7437056165267914E-3</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>7.835148476063621E-5</v>
       </c>
       <c r="F18">
-        <v>9.2558311736393932E-4</v>
+        <v>0.48870788596815995</v>
       </c>
       <c r="G18">
-        <v>3.9437436566623171E-2</v>
+        <v>6.1765985210961286E-2</v>
       </c>
       <c r="H18">
-        <v>1.2577085361895489E-3</v>
+        <v>5.9639727361246349E-3</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>5.8788947677836567E-4</v>
       </c>
       <c r="J18">
-        <v>1.2815512341895581E-3</v>
+        <v>2.8417005627681506E-3</v>
       </c>
       <c r="K18">
-        <v>6.4495324089003543E-4</v>
+        <v>1.4895348658650819E-3</v>
       </c>
       <c r="L18">
-        <v>2.9125126022179902E-3</v>
+        <v>1.0305813823232889E-2</v>
       </c>
       <c r="M18">
-        <v>1.1380413385826771E-3</v>
+        <v>3.6755659448818897E-3</v>
       </c>
       <c r="N18">
-        <v>6.0525709015448468E-4</v>
+        <v>2.1616324648374451E-3</v>
       </c>
       <c r="O18">
-        <v>3.3508555152987499E-4</v>
+        <v>1.0785566189867851E-3</v>
       </c>
       <c r="P18">
-        <v>2.0829114473341626E-3</v>
+        <v>8.9102323024850289E-3</v>
       </c>
       <c r="Q18">
-        <v>6.5002463803063508E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+        <v>2.7678468458078652E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19">
-        <v>3.3715441672285906E-2</v>
-      </c>
-      <c r="C19">
-        <v>1.5741270749856898E-3</v>
-      </c>
-      <c r="D19">
-        <v>2.7437056165267914E-3</v>
-      </c>
-      <c r="E19">
-        <v>7.835148476063621E-5</v>
-      </c>
-      <c r="F19">
-        <v>0.48870788596815995</v>
-      </c>
-      <c r="G19">
-        <v>6.1765985210961286E-2</v>
-      </c>
-      <c r="H19">
-        <v>5.9639727361246349E-3</v>
-      </c>
-      <c r="I19">
-        <v>5.8788947677836567E-4</v>
-      </c>
-      <c r="J19">
-        <v>2.8417005627681506E-3</v>
-      </c>
-      <c r="K19">
-        <v>1.4895348658650819E-3</v>
-      </c>
-      <c r="L19">
-        <v>1.0305813823232889E-2</v>
-      </c>
-      <c r="M19">
-        <v>3.6755659448818897E-3</v>
-      </c>
-      <c r="N19">
-        <v>2.1616324648374451E-3</v>
-      </c>
-      <c r="O19">
-        <v>1.0785566189867851E-3</v>
-      </c>
-      <c r="P19">
-        <v>8.9102323024850289E-3</v>
-      </c>
-      <c r="Q19">
-        <v>2.7678468458078652E-3</v>
+        <v>41</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2024,15 +2134,329 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3830C5E8-FC11-4930-8E07-9B1A24E24132}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:16" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2">
+        <v>4.6642541214314437E-2</v>
+      </c>
+      <c r="C2">
+        <v>0.46337092745864461</v>
+      </c>
+      <c r="D2">
+        <v>0.46864908119230658</v>
+      </c>
+      <c r="E2">
+        <v>1.3000938212035921E-3</v>
+      </c>
+      <c r="F2">
+        <v>1.2072479673886263E-2</v>
+      </c>
+      <c r="G2">
+        <v>7.1732218768977962E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3">
+        <v>9.6635839699772144E-2</v>
+      </c>
+      <c r="C3">
+        <v>0.11497754432336174</v>
+      </c>
+      <c r="D3">
+        <v>0.13275556571689864</v>
+      </c>
+      <c r="E3">
+        <v>3.8600723763570566E-3</v>
+      </c>
+      <c r="F3">
+        <v>1.2867605886173764E-2</v>
+      </c>
+      <c r="G3">
+        <v>1.1431429285892901E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4">
+        <v>0.1553813161774561</v>
+      </c>
+      <c r="C4">
+        <v>9.5601823333743993E-2</v>
+      </c>
+      <c r="D4">
+        <v>9.7382183990168902E-2</v>
+      </c>
+      <c r="E4">
+        <v>1.0293526336952151E-2</v>
+      </c>
+      <c r="F4">
+        <v>1.6171299303424643E-2</v>
+      </c>
+      <c r="G4">
+        <v>1.5282392026578074E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5">
+        <v>0.16863691194209893</v>
+      </c>
+      <c r="C5">
+        <v>8.3091603480909881E-2</v>
+      </c>
+      <c r="D5">
+        <v>8.0177759995427395E-2</v>
+      </c>
+      <c r="E5">
+        <v>1.950140731805388E-2</v>
+      </c>
+      <c r="F5">
+        <v>2.378659260420633E-2</v>
+      </c>
+      <c r="G5">
+        <v>2.0583717357910907E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>0.15389357994906849</v>
+      </c>
+      <c r="C6">
+        <v>6.4186275717629665E-2</v>
+      </c>
+      <c r="D6">
+        <v>6.1915921236889486E-2</v>
+      </c>
+      <c r="E6">
+        <v>2.5814234016887816E-2</v>
+      </c>
+      <c r="F6">
+        <v>2.1994758886375344E-2</v>
+      </c>
+      <c r="G6">
+        <v>2.0819490586932447E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7">
+        <v>0.13476745744538265</v>
+      </c>
+      <c r="C7">
+        <v>5.8485557807967568E-2</v>
+      </c>
+      <c r="D7">
+        <v>5.2842159412420334E-2</v>
+      </c>
+      <c r="E7">
+        <v>3.7139793593352101E-2</v>
+      </c>
+      <c r="F7">
+        <v>2.3517817546531681E-2</v>
+      </c>
+      <c r="G7">
+        <v>2.4177472939663488E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8">
+        <v>0.10923468703927088</v>
+      </c>
+      <c r="C8">
+        <v>4.967128473349984E-2</v>
+      </c>
+      <c r="D8">
+        <v>4.4947272155697181E-2</v>
+      </c>
+      <c r="E8">
+        <v>4.9859268194611985E-2</v>
+      </c>
+      <c r="F8">
+        <v>2.9845230362622349E-2</v>
+      </c>
+      <c r="G8">
+        <v>2.7635480298646091E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9">
+        <v>7.3797078139659564E-2</v>
+      </c>
+      <c r="C9">
+        <v>3.5503488749762002E-2</v>
+      </c>
+      <c r="D9">
+        <v>3.2165413963590635E-2</v>
+      </c>
+      <c r="E9">
+        <v>6.4468569896796682E-2</v>
+      </c>
+      <c r="F9">
+        <v>3.1950634981073756E-2</v>
+      </c>
+      <c r="G9">
+        <v>3.064337512949666E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10">
+        <v>4.2353571907251038E-2</v>
+      </c>
+      <c r="C10">
+        <v>2.3665259220267229E-2</v>
+      </c>
+      <c r="D10">
+        <v>2.0205195621731304E-2</v>
+      </c>
+      <c r="E10">
+        <v>8.8835276772550598E-2</v>
+      </c>
+      <c r="F10">
+        <v>3.621743902165879E-2</v>
+      </c>
+      <c r="G10">
+        <v>3.3758439609902477E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11">
+        <v>1.8000268060581692E-2</v>
+      </c>
+      <c r="C11">
+        <v>9.9790563015892571E-3</v>
+      </c>
+      <c r="D11">
+        <v>8.3450030007716277E-3</v>
+      </c>
+      <c r="E11">
+        <v>0.22716793995442969</v>
+      </c>
+      <c r="F11">
+        <v>0.27714068134477121</v>
+      </c>
+      <c r="G11">
+        <v>0.29570249705283463</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>6.5674842514408256E-4</v>
+      </c>
+      <c r="C12">
+        <v>1.4671788726242341E-3</v>
+      </c>
+      <c r="D12">
+        <v>6.144437140979109E-4</v>
+      </c>
+      <c r="E12">
+        <v>0.47175981771880443</v>
+      </c>
+      <c r="F12">
+        <v>0.5144354603892759</v>
+      </c>
+      <c r="G12">
+        <v>0.51279248383524456</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
